--- a/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
+++ b/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
@@ -22,19 +22,19 @@
     <sheet name="数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.2 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.2 新特性|Fix Bug'!$A$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="125">
   <si>
     <t>No</t>
   </si>
@@ -272,10 +272,6 @@
     <t>房东PC</t>
   </si>
   <si>
-    <t>张飞</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>马丁组</t>
   </si>
   <si>
@@ -311,10 +307,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>张飞</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>分散式合租房间配置中“独卫”选项缺失</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -327,10 +319,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>张飞</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>重要</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -339,7 +327,7 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>房源已在官网展示，伙伴App搜索页，显示房源未上架</t>
+    <t>分散式房源每录一套房子成功后，再录一套的时候就会连接异常</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -347,26 +335,10 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>分散式房源每录一套房子成功后，再录一套的时候就会连接异常</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>统一选择朝向无论选择任何方向，每个房间都只默认为:东</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>张飞</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>重要</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -383,10 +355,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>郑良杰</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>房源多房态图加载logo文字提示</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -497,6 +465,16 @@
   <si>
     <t>安栋</t>
     <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>郑良杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1580,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1695,16 +1673,24 @@
       <c r="F2" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="81" t="s">
+      <c r="G2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="39">
+        <v>42702.625</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="39">
+        <v>42702.625</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="78" t="s">
         <v>73</v>
-      </c>
-      <c r="M2" s="78" t="s">
-        <v>74</v>
       </c>
       <c r="N2" s="81"/>
       <c r="O2" s="81"/>
@@ -1721,30 +1707,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="D3" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="E3" s="78" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>78</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="81" t="s">
+      <c r="G3" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="39">
+        <v>42702.625</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="39">
+        <v>42703.625</v>
+      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="78" t="s">
         <v>73</v>
-      </c>
-      <c r="M3" s="78" t="s">
-        <v>74</v>
       </c>
       <c r="N3" s="81"/>
       <c r="O3" s="81"/>
@@ -1761,30 +1755,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="D4" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="E4" s="78" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>82</v>
       </c>
       <c r="F4" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="81" t="s">
-        <v>83</v>
+      <c r="G4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="39">
+        <v>42702.625</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="39">
+        <v>42704.625</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="L4" s="47" t="s">
+        <v>123</v>
       </c>
       <c r="M4" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" s="81"/>
       <c r="O4" s="81"/>
@@ -1801,30 +1803,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="81" t="s">
-        <v>87</v>
+      <c r="G5" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="39">
+        <v>42702.625</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="39">
+        <v>42705.625</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="47" t="s">
+        <v>123</v>
       </c>
       <c r="M5" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
@@ -1841,30 +1851,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="78" t="s">
         <v>88</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>91</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="81" t="s">
+      <c r="G6" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="39">
+        <v>42702.625</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="39">
+        <v>42707.625</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="78" t="s">
         <v>73</v>
-      </c>
-      <c r="M6" s="78" t="s">
-        <v>74</v>
       </c>
       <c r="N6" s="81"/>
       <c r="O6" s="81"/>
@@ -1881,30 +1899,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="81" t="s">
-        <v>94</v>
+      <c r="G7" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="39">
+        <v>42702.625</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="39">
+        <v>42708.625</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="47" t="s">
+        <v>123</v>
       </c>
       <c r="M7" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="81"/>
       <c r="O7" s="81"/>
@@ -1921,37 +1947,45 @@
         <v>7</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F8" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="81" t="s">
-        <v>96</v>
+      <c r="G8" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="39">
+        <v>42702.625</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="39">
+        <v>42709.625</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="47" t="s">
+        <v>124</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="81"/>
       <c r="O8" s="81"/>
       <c r="P8" s="80"/>
       <c r="Q8" s="81"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
       <c r="T8" s="51"/>
       <c r="U8" s="54"/>
       <c r="V8" s="53"/>
@@ -1961,45 +1995,53 @@
         <v>8</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H9" s="80">
         <v>42700</v>
       </c>
       <c r="I9" s="78" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J9" s="80">
         <v>42700</v>
       </c>
       <c r="K9" s="79"/>
       <c r="L9" s="83" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M9" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
+        <v>73</v>
+      </c>
+      <c r="N9" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="80">
+        <v>42702</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
       <c r="T9" s="51"/>
       <c r="U9" s="54"/>
       <c r="V9" s="53"/>
@@ -2009,50 +2051,50 @@
         <v>9</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H10" s="80">
         <v>42700</v>
       </c>
       <c r="I10" s="78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J10" s="80">
         <v>42700</v>
       </c>
-      <c r="K10" s="79"/>
+      <c r="K10" s="78"/>
       <c r="L10" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="78" t="s">
+      <c r="O10" s="81" t="s">
         <v>105</v>
-      </c>
-      <c r="O10" s="81" t="s">
-        <v>106</v>
       </c>
       <c r="P10" s="80">
         <v>42702</v>
       </c>
       <c r="Q10" s="81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
@@ -2060,33 +2102,33 @@
       <c r="U10" s="54"/>
       <c r="V10" s="53"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A11" s="76">
         <v>10</v>
       </c>
       <c r="B11" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="78" t="s">
         <v>108</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>103</v>
       </c>
       <c r="F11" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="78" t="s">
-        <v>110</v>
+      <c r="G11" s="79" t="s">
+        <v>109</v>
       </c>
       <c r="H11" s="80">
         <v>42700</v>
       </c>
       <c r="I11" s="78" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J11" s="80">
         <v>42700</v>
@@ -2096,19 +2138,19 @@
         <v>111</v>
       </c>
       <c r="M11" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N11" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="81" t="s">
         <v>112</v>
-      </c>
-      <c r="O11" s="81" t="s">
-        <v>113</v>
       </c>
       <c r="P11" s="80">
         <v>42702</v>
       </c>
       <c r="Q11" s="81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
@@ -2116,7 +2158,7 @@
       <c r="U11" s="54"/>
       <c r="V11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="76">
         <v>11</v>
       </c>
@@ -2124,48 +2166,40 @@
         <v>68</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D12" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="78" t="s">
         <v>115</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>116</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="H12" s="80">
-        <v>42700</v>
+        <v>42702</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="J12" s="80">
-        <v>42700</v>
+        <v>42702</v>
       </c>
       <c r="K12" s="78"/>
-      <c r="L12" s="83" t="s">
-        <v>119</v>
+      <c r="L12" s="81" t="s">
+        <v>116</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="O12" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="P12" s="80">
-        <v>42702</v>
-      </c>
-      <c r="Q12" s="81" t="s">
-        <v>121</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N12" s="78"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="81"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
       <c r="T12" s="51"/>
@@ -2177,38 +2211,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F13" s="79" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="H13" s="80">
         <v>42702</v>
       </c>
       <c r="I13" s="78" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="J13" s="80">
         <v>42702</v>
       </c>
       <c r="K13" s="78"/>
       <c r="L13" s="81" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M13" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N13" s="78"/>
       <c r="O13" s="81"/>
@@ -2221,50 +2255,26 @@
       <c r="V13" s="53"/>
     </row>
     <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="76">
-        <v>13</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="80">
-        <v>42702</v>
-      </c>
-      <c r="I14" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="80">
-        <v>42702</v>
-      </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="78"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="81"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="47"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="51"/>
+      <c r="T14" s="44"/>
       <c r="U14" s="54"/>
       <c r="V14" s="53"/>
     </row>
@@ -2303,20 +2313,20 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="47"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
-      <c r="O16" s="47"/>
+      <c r="O16" s="49"/>
       <c r="P16" s="39"/>
-      <c r="Q16" s="47"/>
+      <c r="Q16" s="49"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="54"/>
+      <c r="U16" s="56"/>
       <c r="V16" s="53"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2327,20 +2337,19 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="48"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="47"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="49"/>
+      <c r="O17" s="47"/>
       <c r="P17" s="39"/>
-      <c r="Q17" s="49"/>
+      <c r="Q17" s="47"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="53"/>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U17" s="45"/>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2355,7 +2364,7 @@
       <c r="L18" s="47"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="47"/>
+      <c r="O18" s="44"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="47"/>
       <c r="R18" s="44"/>
@@ -2363,7 +2372,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2378,7 +2387,7 @@
       <c r="L19" s="47"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="44"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="47"/>
       <c r="R19" s="44"/>
@@ -2386,30 +2395,30 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="50"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="47"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="51"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U20" s="54"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2432,7 +2441,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="54"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2455,7 +2464,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="54"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2473,12 +2482,12 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="54"/>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="58"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2496,12 +2505,12 @@
       <c r="O24" s="47"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
       <c r="U24" s="58"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2513,7 +2522,7 @@
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
       <c r="K25" s="38"/>
-      <c r="L25" s="47"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
@@ -2521,10 +2530,10 @@
       <c r="Q25" s="47"/>
       <c r="R25" s="59"/>
       <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
+      <c r="T25" s="60"/>
       <c r="U25" s="58"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2544,10 +2553,10 @@
       <c r="Q26" s="47"/>
       <c r="R26" s="59"/>
       <c r="S26" s="59"/>
-      <c r="T26" s="60"/>
+      <c r="T26" s="59"/>
       <c r="U26" s="58"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2559,7 +2568,7 @@
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
       <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+      <c r="L27" s="47"/>
       <c r="M27" s="38"/>
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
@@ -2570,7 +2579,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="58"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2588,12 +2597,12 @@
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="58"/>
-    </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="47"/>
+    </row>
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2611,12 +2620,12 @@
       <c r="O29" s="47"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="47"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="47"/>
-    </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="54"/>
+    </row>
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2639,7 +2648,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="54"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2662,7 +2671,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="54"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2673,42 +2682,44 @@
       <c r="H32" s="39"/>
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="38"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="47"/>
       <c r="M32" s="38"/>
       <c r="N32" s="47"/>
       <c r="O32" s="47"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="54"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="58"/>
+    </row>
+    <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="41"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="42"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="39"/>
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
-      <c r="K33" s="42"/>
+      <c r="K33" s="38"/>
       <c r="L33" s="47"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="47"/>
+      <c r="N33" s="38"/>
       <c r="O33" s="47"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="47"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="58"/>
-    </row>
-    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2729,9 +2740,7 @@
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-      <c r="U34" s="52" t="s">
-        <v>21</v>
-      </c>
+      <c r="U34" s="54"/>
     </row>
     <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
@@ -2944,23 +2953,23 @@
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
-      <c r="D44" s="37"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="39"/>
-      <c r="I44" s="38"/>
+      <c r="I44" s="39"/>
       <c r="J44" s="39"/>
       <c r="K44" s="38"/>
       <c r="L44" s="47"/>
-      <c r="M44" s="38"/>
+      <c r="M44" s="47"/>
       <c r="N44" s="38"/>
       <c r="O44" s="47"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
       <c r="U44" s="54"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
@@ -2990,24 +2999,24 @@
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
-      <c r="D46" s="40"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="39"/>
       <c r="I46" s="39"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="38"/>
+      <c r="K46" s="50"/>
       <c r="L46" s="47"/>
       <c r="M46" s="47"/>
       <c r="N46" s="38"/>
       <c r="O46" s="47"/>
       <c r="P46" s="39"/>
       <c r="Q46" s="47"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="54"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
@@ -3148,23 +3157,23 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="38"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="46"/>
       <c r="K53" s="50"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="47"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="45"/>
       <c r="R53" s="44"/>
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
@@ -3522,7 +3531,7 @@
       <c r="D69" s="45"/>
       <c r="E69" s="44"/>
       <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="46"/>
       <c r="I69" s="44"/>
       <c r="J69" s="46"/>
@@ -3653,13 +3662,13 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
       <c r="D75" s="45"/>
       <c r="E75" s="44"/>
-      <c r="F75" s="38"/>
+      <c r="F75" s="44"/>
       <c r="G75" s="44"/>
       <c r="H75" s="46"/>
       <c r="I75" s="44"/>
@@ -5051,9 +5060,6 @@
       <c r="O135" s="44"/>
       <c r="P135" s="46"/>
       <c r="Q135" s="45"/>
-      <c r="R135" s="44"/>
-      <c r="S135" s="44"/>
-      <c r="T135" s="44"/>
       <c r="U135" s="45"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.15">
@@ -5736,37 +5742,17 @@
       <c r="Q169" s="45"/>
       <c r="U169" s="45"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A170" s="44"/>
-      <c r="B170" s="44"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="45"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="46"/>
-      <c r="I170" s="44"/>
-      <c r="J170" s="46"/>
-      <c r="K170" s="50"/>
-      <c r="L170" s="44"/>
-      <c r="M170" s="44"/>
-      <c r="N170" s="44"/>
-      <c r="O170" s="44"/>
-      <c r="P170" s="46"/>
-      <c r="Q170" s="45"/>
-      <c r="U170" s="45"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 T1:T1048576 G1:G1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M1:M1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G1:G1048576 I1:I2 I5:I6 I9:I1048576 T1:T1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
@@ -5782,7 +5768,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
+++ b/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.2 20161129\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -29,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
   <si>
     <t>No</t>
   </si>
@@ -474,14 +469,18 @@
   </si>
   <si>
     <t>郑良杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1188,7 +1187,7 @@
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1557,14 +1556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.75" style="32" bestFit="1" customWidth="1"/>
@@ -1589,7 +1588,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -1692,17 +1691,25 @@
       <c r="M2" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="81"/>
+      <c r="N2" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="80">
+        <v>42702</v>
+      </c>
+      <c r="Q2" s="81" t="s">
+        <v>99</v>
+      </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
       <c r="T2" s="51"/>
       <c r="U2" s="52"/>
       <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -1740,17 +1747,25 @@
       <c r="M3" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="81"/>
+      <c r="N3" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="80">
+        <v>42702</v>
+      </c>
+      <c r="Q3" s="81" t="s">
+        <v>99</v>
+      </c>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
       <c r="T3" s="51"/>
       <c r="U3" s="54"/>
       <c r="V3" s="53"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A4" s="76">
         <v>3</v>
       </c>
@@ -1788,17 +1803,25 @@
       <c r="M4" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="81"/>
+      <c r="N4" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="80">
+        <v>42702</v>
+      </c>
+      <c r="Q4" s="81" t="s">
+        <v>99</v>
+      </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
       <c r="T4" s="51"/>
       <c r="U4" s="52"/>
       <c r="V4" s="53"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -1836,17 +1859,25 @@
       <c r="M5" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="81"/>
+      <c r="N5" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="80">
+        <v>42702</v>
+      </c>
+      <c r="Q5" s="81" t="s">
+        <v>99</v>
+      </c>
       <c r="R5" s="44"/>
       <c r="S5" s="44"/>
       <c r="T5" s="51"/>
       <c r="U5" s="54"/>
       <c r="V5" s="53"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A6" s="76">
         <v>5</v>
       </c>
@@ -1884,17 +1915,27 @@
       <c r="M6" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="44"/>
+      <c r="N6" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="80">
+        <v>42702</v>
+      </c>
+      <c r="Q6" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="44">
+        <v>5521</v>
+      </c>
       <c r="S6" s="44"/>
       <c r="T6" s="51"/>
       <c r="U6" s="54"/>
       <c r="V6" s="53"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -1932,17 +1973,27 @@
       <c r="M7" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="44"/>
+      <c r="N7" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="80">
+        <v>42702</v>
+      </c>
+      <c r="Q7" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="44">
+        <v>5522</v>
+      </c>
       <c r="S7" s="44"/>
       <c r="T7" s="51"/>
       <c r="U7" s="54"/>
       <c r="V7" s="53"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A8" s="76">
         <v>7</v>
       </c>
@@ -1980,17 +2031,27 @@
       <c r="M8" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="55"/>
+      <c r="N8" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="80">
+        <v>42702</v>
+      </c>
+      <c r="Q8" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="55">
+        <v>5526</v>
+      </c>
       <c r="S8" s="55"/>
       <c r="T8" s="51"/>
       <c r="U8" s="54"/>
       <c r="V8" s="53"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -2046,7 +2107,7 @@
       <c r="U9" s="54"/>
       <c r="V9" s="53"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A10" s="76">
         <v>9</v>
       </c>
@@ -2102,7 +2163,7 @@
       <c r="U10" s="54"/>
       <c r="V10" s="53"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="49.5">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -2158,7 +2219,7 @@
       <c r="U11" s="54"/>
       <c r="V11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="76">
         <v>11</v>
       </c>
@@ -2196,17 +2257,25 @@
       <c r="M12" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="78"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="81"/>
+      <c r="N12" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="80">
+        <v>42702</v>
+      </c>
+      <c r="Q12" s="81" t="s">
+        <v>99</v>
+      </c>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
       <c r="T12" s="51"/>
       <c r="U12" s="54"/>
       <c r="V12" s="53"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="76">
         <v>12</v>
       </c>
@@ -2244,17 +2313,25 @@
       <c r="M13" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="78"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="81"/>
+      <c r="N13" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="80">
+        <v>42702</v>
+      </c>
+      <c r="Q13" s="81" t="s">
+        <v>99</v>
+      </c>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
       <c r="T13" s="51"/>
       <c r="U13" s="54"/>
       <c r="V13" s="53"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -2278,7 +2355,7 @@
       <c r="U14" s="54"/>
       <c r="V14" s="53"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2302,7 +2379,7 @@
       <c r="U15" s="54"/>
       <c r="V15" s="53"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2326,7 +2403,7 @@
       <c r="U16" s="56"/>
       <c r="V16" s="53"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2349,7 +2426,7 @@
       <c r="T17" s="44"/>
       <c r="U17" s="45"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2372,7 +2449,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2395,7 +2472,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2418,7 +2495,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="54"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2441,7 +2518,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="54"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2464,7 +2541,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="54"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2487,7 +2564,7 @@
       <c r="T23" s="57"/>
       <c r="U23" s="58"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2510,7 +2587,7 @@
       <c r="T24" s="59"/>
       <c r="U24" s="58"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2533,7 +2610,7 @@
       <c r="T25" s="60"/>
       <c r="U25" s="58"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2556,7 +2633,7 @@
       <c r="T26" s="59"/>
       <c r="U26" s="58"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2579,7 +2656,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="58"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2602,7 +2679,7 @@
       <c r="T28" s="55"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2625,7 +2702,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="54"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2648,7 +2725,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="54"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2671,7 +2748,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="54"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2694,7 +2771,7 @@
       <c r="T32" s="59"/>
       <c r="U32" s="58"/>
     </row>
-    <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="49.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2719,7 +2796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2742,7 +2819,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="54"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2765,7 +2842,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="54"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2788,7 +2865,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="54"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2811,7 +2888,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="54"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2834,7 +2911,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="54"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2857,7 +2934,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="54"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2880,7 +2957,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="54"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2903,7 +2980,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="54"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2926,7 +3003,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="54"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2949,7 +3026,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="54"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2972,7 +3049,7 @@
       <c r="T44" s="55"/>
       <c r="U44" s="54"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2995,7 +3072,7 @@
       <c r="T45" s="55"/>
       <c r="U45" s="54"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -3018,7 +3095,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -3041,7 +3118,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -3064,7 +3141,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -3087,7 +3164,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3110,7 +3187,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -3133,7 +3210,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -3156,7 +3233,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3179,7 +3256,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3202,7 +3279,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3225,7 +3302,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3248,7 +3325,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3271,7 +3348,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3294,7 +3371,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3317,7 +3394,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3340,7 +3417,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3363,7 +3440,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3386,7 +3463,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3409,7 +3486,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3432,7 +3509,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3455,7 +3532,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3478,7 +3555,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3501,7 +3578,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3524,7 +3601,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3547,7 +3624,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3570,7 +3647,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3593,7 +3670,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3616,7 +3693,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3639,7 +3716,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3662,7 +3739,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3685,7 +3762,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3708,7 +3785,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3731,7 +3808,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3754,7 +3831,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3777,7 +3854,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3800,7 +3877,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3823,7 +3900,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3846,7 +3923,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3869,7 +3946,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3892,7 +3969,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3915,7 +3992,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3938,7 +4015,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3961,7 +4038,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3984,7 +4061,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -4007,7 +4084,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -4030,7 +4107,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -4053,7 +4130,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -4076,7 +4153,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -4099,7 +4176,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4122,7 +4199,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4145,7 +4222,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4168,7 +4245,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4191,7 +4268,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4214,7 +4291,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4237,7 +4314,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4260,7 +4337,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4283,7 +4360,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4306,7 +4383,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4329,7 +4406,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4352,7 +4429,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4375,7 +4452,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4398,7 +4475,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4421,7 +4498,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4444,7 +4521,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4467,7 +4544,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4490,7 +4567,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4513,7 +4590,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4536,7 +4613,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4559,7 +4636,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4582,7 +4659,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4605,7 +4682,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4628,7 +4705,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4651,7 +4728,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4674,7 +4751,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4697,7 +4774,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4720,7 +4797,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4743,7 +4820,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4766,7 +4843,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4789,7 +4866,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4812,7 +4889,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4835,7 +4912,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4858,7 +4935,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4881,7 +4958,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4904,7 +4981,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4927,7 +5004,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4950,7 +5027,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4973,7 +5050,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4996,7 +5073,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -5019,7 +5096,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -5042,7 +5119,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -5062,7 +5139,7 @@
       <c r="Q135" s="45"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -5082,7 +5159,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -5102,7 +5179,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5122,7 +5199,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5142,7 +5219,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5162,7 +5239,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5182,7 +5259,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5202,7 +5279,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5222,7 +5299,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5242,7 +5319,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5262,7 +5339,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5282,7 +5359,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5302,7 +5379,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5322,7 +5399,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5342,7 +5419,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5362,7 +5439,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5382,7 +5459,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5402,7 +5479,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5422,7 +5499,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5442,7 +5519,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5462,7 +5539,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5482,7 +5559,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5502,7 +5579,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5522,7 +5599,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5542,7 +5619,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5562,7 +5639,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5582,7 +5659,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5602,7 +5679,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5622,7 +5699,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5642,7 +5719,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5662,7 +5739,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5682,7 +5759,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5702,7 +5779,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5722,7 +5799,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5773,14 +5850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5800,7 +5877,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="61" t="s">
         <v>54</v>
       </c>
@@ -5856,7 +5933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="65"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -5876,7 +5953,7 @@
       <c r="Q2" s="74"/>
       <c r="R2" s="74"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="65"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -5896,7 +5973,7 @@
       <c r="Q3" s="74"/>
       <c r="R3" s="74"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="65"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
@@ -5923,14 +6000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
@@ -5943,7 +6020,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="84" t="s">
         <v>53</v>
       </c>
@@ -5958,7 +6035,7 @@
       <c r="J1" s="85"/>
       <c r="K1" s="85"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -5993,7 +6070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="86"/>
       <c r="B3" s="86"/>
       <c r="C3" s="20"/>
@@ -6006,7 +6083,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="87"/>
       <c r="B4" s="88"/>
       <c r="C4" s="20"/>
@@ -6019,7 +6096,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="86"/>
       <c r="B5" s="86"/>
       <c r="C5" s="20"/>
@@ -6032,7 +6109,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="20"/>
@@ -6045,7 +6122,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="88"/>
       <c r="B7" s="88"/>
       <c r="C7" s="20"/>
@@ -6058,7 +6135,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="88"/>
       <c r="B8" s="88"/>
       <c r="C8" s="20"/>
@@ -6071,7 +6148,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="88"/>
       <c r="B9" s="88"/>
       <c r="C9" s="20"/>
@@ -6084,7 +6161,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="87"/>
       <c r="B10" s="87"/>
       <c r="C10" s="20"/>
@@ -6097,7 +6174,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6124,14 +6201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6146,7 +6223,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -6163,7 +6240,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6178,7 +6255,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6219,7 +6296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6234,7 +6311,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6249,7 +6326,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6264,7 +6341,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6279,7 +6356,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6294,7 +6371,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6309,7 +6386,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6324,7 +6401,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6339,7 +6416,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6354,7 +6431,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6369,7 +6446,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6384,7 +6461,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6399,7 +6476,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6438,14 +6515,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6460,7 +6537,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -6477,7 +6554,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6492,7 +6569,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6533,7 +6610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6548,7 +6625,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6563,7 +6640,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6578,7 +6655,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6593,7 +6670,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6608,7 +6685,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6623,7 +6700,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6638,7 +6715,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6653,7 +6730,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6668,7 +6745,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6683,7 +6760,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6698,7 +6775,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6713,7 +6790,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6752,14 +6829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6774,7 +6851,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -6791,7 +6868,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6806,7 +6883,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6847,7 +6924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6862,7 +6939,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6877,7 +6954,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6892,7 +6969,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6907,7 +6984,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6922,7 +6999,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6937,7 +7014,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6952,7 +7029,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6967,7 +7044,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6982,7 +7059,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6997,7 +7074,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7012,7 +7089,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7027,7 +7104,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7066,14 +7143,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7090,7 +7167,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -7107,7 +7184,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -7122,7 +7199,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -7163,7 +7240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7178,7 +7255,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7193,7 +7270,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7208,7 +7285,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7223,7 +7300,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7238,7 +7315,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7253,7 +7330,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7268,7 +7345,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7283,7 +7360,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7298,7 +7375,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7313,7 +7390,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7328,7 +7405,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7343,7 +7420,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7382,14 +7459,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7400,7 +7477,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -7426,7 +7503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7436,7 +7513,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7446,7 +7523,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7456,7 +7533,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7466,7 +7543,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7476,7 +7553,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7486,7 +7563,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7496,7 +7573,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7506,7 +7583,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7516,7 +7593,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7526,7 +7603,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7536,7 +7613,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7546,7 +7623,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7556,7 +7633,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7566,7 +7643,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7576,7 +7653,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7586,7 +7663,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7596,7 +7673,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
+++ b/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1569,17 +1569,17 @@
     <col min="2" max="3" width="9.75" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.25" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="32" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="32" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="33" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="32" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="33" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="33" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="11.875" style="32" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="32" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="33" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="33" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.75" style="33" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" style="34" customWidth="1"/>
     <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
@@ -1703,7 +1703,9 @@
       <c r="Q2" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="44"/>
+      <c r="R2" s="44">
+        <v>5532</v>
+      </c>
       <c r="S2" s="44"/>
       <c r="T2" s="51"/>
       <c r="U2" s="52"/>
@@ -1759,7 +1761,9 @@
       <c r="Q3" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="44"/>
+      <c r="R3" s="44">
+        <v>5533</v>
+      </c>
       <c r="S3" s="44"/>
       <c r="T3" s="51"/>
       <c r="U3" s="54"/>
@@ -1815,7 +1819,9 @@
       <c r="Q4" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="44"/>
+      <c r="R4" s="44">
+        <v>5535</v>
+      </c>
       <c r="S4" s="44"/>
       <c r="T4" s="51"/>
       <c r="U4" s="52"/>
@@ -1871,7 +1877,9 @@
       <c r="Q5" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="44"/>
+      <c r="R5" s="44">
+        <v>5536</v>
+      </c>
       <c r="S5" s="44"/>
       <c r="T5" s="51"/>
       <c r="U5" s="54"/>

--- a/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
+++ b/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.2 20161129\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -479,8 +484,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1187,7 +1192,7 @@
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1556,14 +1561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.75" style="32" bestFit="1" customWidth="1"/>
@@ -1588,7 +1593,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -1703,13 +1708,15 @@
       <c r="Q2" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="44"/>
+      <c r="R2" s="44">
+        <v>5532</v>
+      </c>
       <c r="S2" s="44"/>
       <c r="T2" s="51"/>
       <c r="U2" s="52"/>
       <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -1759,13 +1766,15 @@
       <c r="Q3" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="44"/>
+      <c r="R3" s="44">
+        <v>5533</v>
+      </c>
       <c r="S3" s="44"/>
       <c r="T3" s="51"/>
       <c r="U3" s="54"/>
       <c r="V3" s="53"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="76">
         <v>3</v>
       </c>
@@ -1815,13 +1824,15 @@
       <c r="Q4" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="44"/>
+      <c r="R4" s="44">
+        <v>5535</v>
+      </c>
       <c r="S4" s="44"/>
       <c r="T4" s="51"/>
       <c r="U4" s="52"/>
       <c r="V4" s="53"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -1871,13 +1882,15 @@
       <c r="Q5" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="44"/>
+      <c r="R5" s="44">
+        <v>5536</v>
+      </c>
       <c r="S5" s="44"/>
       <c r="T5" s="51"/>
       <c r="U5" s="54"/>
       <c r="V5" s="53"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="76">
         <v>5</v>
       </c>
@@ -1935,7 +1948,7 @@
       <c r="U6" s="54"/>
       <c r="V6" s="53"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -1993,7 +2006,7 @@
       <c r="U7" s="54"/>
       <c r="V7" s="53"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>7</v>
       </c>
@@ -2051,7 +2064,7 @@
       <c r="U8" s="54"/>
       <c r="V8" s="53"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -2107,7 +2120,7 @@
       <c r="U9" s="54"/>
       <c r="V9" s="53"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="76">
         <v>9</v>
       </c>
@@ -2163,7 +2176,7 @@
       <c r="U10" s="54"/>
       <c r="V10" s="53"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="49.5">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -2219,7 +2232,7 @@
       <c r="U11" s="54"/>
       <c r="V11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="76">
         <v>11</v>
       </c>
@@ -2275,7 +2288,7 @@
       <c r="U12" s="54"/>
       <c r="V12" s="53"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="76">
         <v>12</v>
       </c>
@@ -2331,7 +2344,7 @@
       <c r="U13" s="54"/>
       <c r="V13" s="53"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -2355,7 +2368,7 @@
       <c r="U14" s="54"/>
       <c r="V14" s="53"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2379,7 +2392,7 @@
       <c r="U15" s="54"/>
       <c r="V15" s="53"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2403,7 +2416,7 @@
       <c r="U16" s="56"/>
       <c r="V16" s="53"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2426,7 +2439,7 @@
       <c r="T17" s="44"/>
       <c r="U17" s="45"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5">
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2449,7 +2462,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2472,7 +2485,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2495,7 +2508,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="54"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2518,7 +2531,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="54"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2541,7 +2554,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="54"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2564,7 +2577,7 @@
       <c r="T23" s="57"/>
       <c r="U23" s="58"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2587,7 +2600,7 @@
       <c r="T24" s="59"/>
       <c r="U24" s="58"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2610,7 +2623,7 @@
       <c r="T25" s="60"/>
       <c r="U25" s="58"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2633,7 +2646,7 @@
       <c r="T26" s="59"/>
       <c r="U26" s="58"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2656,7 +2669,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="58"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2679,7 +2692,7 @@
       <c r="T28" s="55"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2702,7 +2715,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="54"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2725,7 +2738,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="54"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2748,7 +2761,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="54"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2771,7 +2784,7 @@
       <c r="T32" s="59"/>
       <c r="U32" s="58"/>
     </row>
-    <row r="33" spans="1:21" ht="49.5">
+    <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2796,7 +2809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2819,7 +2832,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="54"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2842,7 +2855,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="54"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2865,7 +2878,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="54"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2888,7 +2901,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="54"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2911,7 +2924,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="54"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2934,7 +2947,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="54"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2957,7 +2970,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="54"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2980,7 +2993,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="54"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -3003,7 +3016,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="54"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -3026,7 +3039,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="54"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -3049,7 +3062,7 @@
       <c r="T44" s="55"/>
       <c r="U44" s="54"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -3072,7 +3085,7 @@
       <c r="T45" s="55"/>
       <c r="U45" s="54"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -3095,7 +3108,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -3118,7 +3131,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -3141,7 +3154,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -3164,7 +3177,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3187,7 +3200,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -3210,7 +3223,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -3233,7 +3246,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3256,7 +3269,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3279,7 +3292,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3302,7 +3315,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3325,7 +3338,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3348,7 +3361,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3371,7 +3384,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3394,7 +3407,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3417,7 +3430,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3440,7 +3453,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3463,7 +3476,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3486,7 +3499,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3509,7 +3522,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3532,7 +3545,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3555,7 +3568,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3578,7 +3591,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3601,7 +3614,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3624,7 +3637,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3647,7 +3660,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3670,7 +3683,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3693,7 +3706,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3716,7 +3729,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3739,7 +3752,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3762,7 +3775,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3785,7 +3798,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3808,7 +3821,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3831,7 +3844,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3854,7 +3867,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3877,7 +3890,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3900,7 +3913,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3923,7 +3936,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3946,7 +3959,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3969,7 +3982,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3992,7 +4005,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -4015,7 +4028,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -4038,7 +4051,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -4061,7 +4074,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -4084,7 +4097,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -4107,7 +4120,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -4130,7 +4143,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -4153,7 +4166,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -4176,7 +4189,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4199,7 +4212,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4222,7 +4235,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4245,7 +4258,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4268,7 +4281,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4291,7 +4304,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4314,7 +4327,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4337,7 +4350,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4360,7 +4373,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4383,7 +4396,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4406,7 +4419,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4429,7 +4442,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4452,7 +4465,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4475,7 +4488,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4498,7 +4511,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4521,7 +4534,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4544,7 +4557,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4567,7 +4580,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4590,7 +4603,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4613,7 +4626,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4636,7 +4649,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4659,7 +4672,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4682,7 +4695,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4705,7 +4718,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4728,7 +4741,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4751,7 +4764,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4774,7 +4787,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4797,7 +4810,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4820,7 +4833,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4843,7 +4856,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4866,7 +4879,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4889,7 +4902,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4912,7 +4925,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4935,7 +4948,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4958,7 +4971,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4981,7 +4994,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -5004,7 +5017,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -5027,7 +5040,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -5050,7 +5063,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -5073,7 +5086,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -5096,7 +5109,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -5119,7 +5132,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -5139,7 +5152,7 @@
       <c r="Q135" s="45"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -5159,7 +5172,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -5179,7 +5192,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5199,7 +5212,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5219,7 +5232,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5239,7 +5252,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5259,7 +5272,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5279,7 +5292,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5299,7 +5312,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5319,7 +5332,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5339,7 +5352,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5359,7 +5372,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5379,7 +5392,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5399,7 +5412,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5419,7 +5432,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5439,7 +5452,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5459,7 +5472,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5479,7 +5492,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5499,7 +5512,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5519,7 +5532,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5539,7 +5552,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5559,7 +5572,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5579,7 +5592,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5599,7 +5612,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5619,7 +5632,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5639,7 +5652,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5659,7 +5672,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5679,7 +5692,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5699,7 +5712,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5719,7 +5732,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5739,7 +5752,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5759,7 +5772,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5779,7 +5792,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5799,7 +5812,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5850,14 +5863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5877,7 +5890,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="61" t="s">
         <v>54</v>
       </c>
@@ -5933,7 +5946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="65"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -5953,7 +5966,7 @@
       <c r="Q2" s="74"/>
       <c r="R2" s="74"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="65"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -5973,7 +5986,7 @@
       <c r="Q3" s="74"/>
       <c r="R3" s="74"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="65"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
@@ -6000,14 +6013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
@@ -6020,7 +6033,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
         <v>53</v>
       </c>
@@ -6035,7 +6048,7 @@
       <c r="J1" s="85"/>
       <c r="K1" s="85"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -6070,7 +6083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="86"/>
       <c r="B3" s="86"/>
       <c r="C3" s="20"/>
@@ -6083,7 +6096,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="87"/>
       <c r="B4" s="88"/>
       <c r="C4" s="20"/>
@@ -6096,7 +6109,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="86"/>
       <c r="B5" s="86"/>
       <c r="C5" s="20"/>
@@ -6109,7 +6122,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="20"/>
@@ -6122,7 +6135,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="88"/>
       <c r="B7" s="88"/>
       <c r="C7" s="20"/>
@@ -6135,7 +6148,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="88"/>
       <c r="B8" s="88"/>
       <c r="C8" s="20"/>
@@ -6148,7 +6161,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="88"/>
       <c r="B9" s="88"/>
       <c r="C9" s="20"/>
@@ -6161,7 +6174,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="87"/>
       <c r="B10" s="87"/>
       <c r="C10" s="20"/>
@@ -6174,7 +6187,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6201,14 +6214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6223,7 +6236,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -6240,7 +6253,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6255,7 +6268,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6296,7 +6309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6311,7 +6324,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6326,7 +6339,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6341,7 +6354,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6356,7 +6369,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6371,7 +6384,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6386,7 +6399,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6401,7 +6414,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6416,7 +6429,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6431,7 +6444,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6446,7 +6459,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6461,7 +6474,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6476,7 +6489,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6515,14 +6528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6537,7 +6550,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -6554,7 +6567,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6569,7 +6582,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6610,7 +6623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6625,7 +6638,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6640,7 +6653,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6655,7 +6668,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6670,7 +6683,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6685,7 +6698,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6700,7 +6713,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6715,7 +6728,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6730,7 +6743,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6745,7 +6758,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6760,7 +6773,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6775,7 +6788,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6790,7 +6803,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6829,14 +6842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6851,7 +6864,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -6868,7 +6881,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6883,7 +6896,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6924,7 +6937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6939,7 +6952,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6954,7 +6967,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6969,7 +6982,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6984,7 +6997,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6999,7 +7012,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7014,7 +7027,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7029,7 +7042,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7044,7 +7057,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7059,7 +7072,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7074,7 +7087,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7089,7 +7102,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7104,7 +7117,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7143,14 +7156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7167,7 +7180,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -7184,7 +7197,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -7199,7 +7212,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -7240,7 +7253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7255,7 +7268,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7270,7 +7283,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7285,7 +7298,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7300,7 +7313,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7315,7 +7328,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7330,7 +7343,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7345,7 +7358,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7360,7 +7373,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7375,7 +7388,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7390,7 +7403,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7405,7 +7418,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7420,7 +7433,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7459,14 +7472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7477,7 +7490,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -7503,7 +7516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7513,7 +7526,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7523,7 +7536,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7533,7 +7546,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7543,7 +7556,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7553,7 +7566,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7563,7 +7576,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7573,7 +7586,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7583,7 +7596,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7593,7 +7606,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7603,7 +7616,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7613,7 +7626,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7623,7 +7636,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7633,7 +7646,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7643,7 +7656,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7653,7 +7666,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7663,7 +7676,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7673,7 +7686,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
+++ b/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.2 20161129\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="127">
   <si>
     <t>No</t>
   </si>
@@ -478,14 +473,18 @@
   </si>
   <si>
     <t>邵明基</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1192,7 +1191,7 @@
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1561,14 +1560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.75" style="32" bestFit="1" customWidth="1"/>
@@ -1593,7 +1592,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A2" s="76">
         <v>1</v>
       </c>
@@ -1712,11 +1711,13 @@
         <v>5532</v>
       </c>
       <c r="S2" s="44"/>
-      <c r="T2" s="51"/>
+      <c r="T2" s="44" t="s">
+        <v>126</v>
+      </c>
       <c r="U2" s="52"/>
       <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A3" s="76">
         <v>2</v>
       </c>
@@ -1774,7 +1775,7 @@
       <c r="U3" s="54"/>
       <c r="V3" s="53"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A4" s="76">
         <v>3</v>
       </c>
@@ -1832,7 +1833,7 @@
       <c r="U4" s="52"/>
       <c r="V4" s="53"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A5" s="76">
         <v>4</v>
       </c>
@@ -1890,7 +1891,7 @@
       <c r="U5" s="54"/>
       <c r="V5" s="53"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A6" s="76">
         <v>5</v>
       </c>
@@ -1948,7 +1949,7 @@
       <c r="U6" s="54"/>
       <c r="V6" s="53"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="76">
         <v>6</v>
       </c>
@@ -2006,7 +2007,7 @@
       <c r="U7" s="54"/>
       <c r="V7" s="53"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A8" s="76">
         <v>7</v>
       </c>
@@ -2064,7 +2065,7 @@
       <c r="U8" s="54"/>
       <c r="V8" s="53"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="76">
         <v>8</v>
       </c>
@@ -2120,7 +2121,7 @@
       <c r="U9" s="54"/>
       <c r="V9" s="53"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A10" s="76">
         <v>9</v>
       </c>
@@ -2176,7 +2177,7 @@
       <c r="U10" s="54"/>
       <c r="V10" s="53"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="49.5">
       <c r="A11" s="76">
         <v>10</v>
       </c>
@@ -2232,7 +2233,7 @@
       <c r="U11" s="54"/>
       <c r="V11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="76">
         <v>11</v>
       </c>
@@ -2288,7 +2289,7 @@
       <c r="U12" s="54"/>
       <c r="V12" s="53"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="76">
         <v>12</v>
       </c>
@@ -2344,7 +2345,7 @@
       <c r="U13" s="54"/>
       <c r="V13" s="53"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -2368,7 +2369,7 @@
       <c r="U14" s="54"/>
       <c r="V14" s="53"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2392,7 +2393,7 @@
       <c r="U15" s="54"/>
       <c r="V15" s="53"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2416,7 +2417,7 @@
       <c r="U16" s="56"/>
       <c r="V16" s="53"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2439,7 +2440,7 @@
       <c r="T17" s="44"/>
       <c r="U17" s="45"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2462,7 +2463,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2485,7 +2486,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2508,7 +2509,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="54"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2531,7 +2532,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="54"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2554,7 +2555,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="54"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2577,7 +2578,7 @@
       <c r="T23" s="57"/>
       <c r="U23" s="58"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2600,7 +2601,7 @@
       <c r="T24" s="59"/>
       <c r="U24" s="58"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2623,7 +2624,7 @@
       <c r="T25" s="60"/>
       <c r="U25" s="58"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2646,7 +2647,7 @@
       <c r="T26" s="59"/>
       <c r="U26" s="58"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2669,7 +2670,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="58"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2692,7 +2693,7 @@
       <c r="T28" s="55"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2715,7 +2716,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="54"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2738,7 +2739,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="54"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2761,7 +2762,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="54"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2784,7 +2785,7 @@
       <c r="T32" s="59"/>
       <c r="U32" s="58"/>
     </row>
-    <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="49.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2809,7 +2810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2832,7 +2833,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="54"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2855,7 +2856,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="54"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2878,7 +2879,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="54"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2901,7 +2902,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="54"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2924,7 +2925,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="54"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2947,7 +2948,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="54"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2970,7 +2971,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="54"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2993,7 +2994,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="54"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -3016,7 +3017,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="54"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -3039,7 +3040,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="54"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -3062,7 +3063,7 @@
       <c r="T44" s="55"/>
       <c r="U44" s="54"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -3085,7 +3086,7 @@
       <c r="T45" s="55"/>
       <c r="U45" s="54"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -3108,7 +3109,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -3131,7 +3132,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -3154,7 +3155,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -3177,7 +3178,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3200,7 +3201,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -3223,7 +3224,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -3246,7 +3247,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3269,7 +3270,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3292,7 +3293,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3315,7 +3316,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3338,7 +3339,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3361,7 +3362,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3384,7 +3385,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3407,7 +3408,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3430,7 +3431,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3453,7 +3454,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3476,7 +3477,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3499,7 +3500,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3522,7 +3523,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3545,7 +3546,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3568,7 +3569,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3591,7 +3592,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3614,7 +3615,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3637,7 +3638,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3660,7 +3661,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3683,7 +3684,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3706,7 +3707,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3729,7 +3730,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3752,7 +3753,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3775,7 +3776,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3798,7 +3799,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3821,7 +3822,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3844,7 +3845,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3867,7 +3868,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3890,7 +3891,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3913,7 +3914,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3936,7 +3937,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3959,7 +3960,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3982,7 +3983,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -4005,7 +4006,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -4028,7 +4029,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -4051,7 +4052,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -4074,7 +4075,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -4097,7 +4098,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -4120,7 +4121,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -4143,7 +4144,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -4166,7 +4167,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -4189,7 +4190,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4212,7 +4213,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4235,7 +4236,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4258,7 +4259,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4281,7 +4282,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4304,7 +4305,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4327,7 +4328,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4350,7 +4351,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4373,7 +4374,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4396,7 +4397,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4419,7 +4420,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4442,7 +4443,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4465,7 +4466,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4488,7 +4489,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4511,7 +4512,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4534,7 +4535,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4557,7 +4558,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4580,7 +4581,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4603,7 +4604,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4626,7 +4627,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4649,7 +4650,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4672,7 +4673,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4695,7 +4696,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4718,7 +4719,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4741,7 +4742,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4764,7 +4765,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4787,7 +4788,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4810,7 +4811,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4833,7 +4834,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4856,7 +4857,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4879,7 +4880,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4902,7 +4903,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4925,7 +4926,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4948,7 +4949,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4971,7 +4972,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4994,7 +4995,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -5017,7 +5018,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -5040,7 +5041,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -5063,7 +5064,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -5086,7 +5087,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -5109,7 +5110,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -5132,7 +5133,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -5152,7 +5153,7 @@
       <c r="Q135" s="45"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -5172,7 +5173,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -5192,7 +5193,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5212,7 +5213,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5232,7 +5233,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5252,7 +5253,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5272,7 +5273,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5292,7 +5293,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5312,7 +5313,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5332,7 +5333,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5352,7 +5353,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5372,7 +5373,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5392,7 +5393,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5412,7 +5413,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5432,7 +5433,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5452,7 +5453,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5472,7 +5473,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5492,7 +5493,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5512,7 +5513,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5532,7 +5533,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5552,7 +5553,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5572,7 +5573,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5592,7 +5593,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5612,7 +5613,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5632,7 +5633,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5652,7 +5653,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5672,7 +5673,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5692,7 +5693,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5712,7 +5713,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5732,7 +5733,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5752,7 +5753,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5772,7 +5773,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5792,7 +5793,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5812,7 +5813,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5863,14 +5864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5890,7 +5891,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="61" t="s">
         <v>54</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="65"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -5966,7 +5967,7 @@
       <c r="Q2" s="74"/>
       <c r="R2" s="74"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="65"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -5986,7 +5987,7 @@
       <c r="Q3" s="74"/>
       <c r="R3" s="74"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="65"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
@@ -6013,14 +6014,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
@@ -6033,7 +6034,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="84" t="s">
         <v>53</v>
       </c>
@@ -6048,7 +6049,7 @@
       <c r="J1" s="85"/>
       <c r="K1" s="85"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -6083,7 +6084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="86"/>
       <c r="B3" s="86"/>
       <c r="C3" s="20"/>
@@ -6096,7 +6097,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="87"/>
       <c r="B4" s="88"/>
       <c r="C4" s="20"/>
@@ -6109,7 +6110,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="86"/>
       <c r="B5" s="86"/>
       <c r="C5" s="20"/>
@@ -6122,7 +6123,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="20"/>
@@ -6135,7 +6136,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="88"/>
       <c r="B7" s="88"/>
       <c r="C7" s="20"/>
@@ -6148,7 +6149,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="88"/>
       <c r="B8" s="88"/>
       <c r="C8" s="20"/>
@@ -6161,7 +6162,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="88"/>
       <c r="B9" s="88"/>
       <c r="C9" s="20"/>
@@ -6174,7 +6175,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="87"/>
       <c r="B10" s="87"/>
       <c r="C10" s="20"/>
@@ -6187,7 +6188,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6214,14 +6215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6236,7 +6237,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -6253,7 +6254,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6268,7 +6269,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6324,7 +6325,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6339,7 +6340,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6354,7 +6355,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6369,7 +6370,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6384,7 +6385,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6399,7 +6400,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6414,7 +6415,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6429,7 +6430,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6444,7 +6445,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6459,7 +6460,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6474,7 +6475,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6489,7 +6490,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6528,14 +6529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6550,7 +6551,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -6567,7 +6568,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6582,7 +6583,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6623,7 +6624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6638,7 +6639,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6653,7 +6654,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6668,7 +6669,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6683,7 +6684,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6698,7 +6699,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6713,7 +6714,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6728,7 +6729,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6743,7 +6744,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6758,7 +6759,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6773,7 +6774,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6788,7 +6789,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6803,7 +6804,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6842,14 +6843,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6864,7 +6865,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -6881,7 +6882,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6896,7 +6897,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6952,7 +6953,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6967,7 +6968,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6982,7 +6983,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6997,7 +6998,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7012,7 +7013,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7027,7 +7028,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7042,7 +7043,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7057,7 +7058,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7072,7 +7073,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7087,7 +7088,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7102,7 +7103,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7117,7 +7118,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7156,14 +7157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7180,7 +7181,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="89" t="s">
         <v>22</v>
       </c>
@@ -7197,7 +7198,7 @@
       <c r="L1" s="89"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -7212,7 +7213,7 @@
       <c r="L2" s="91"/>
       <c r="M2" s="92"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7268,7 +7269,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7283,7 +7284,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7298,7 +7299,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7313,7 +7314,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7328,7 +7329,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7343,7 +7344,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7358,7 +7359,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7373,7 +7374,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7388,7 +7389,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7403,7 +7404,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7418,7 +7419,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7433,7 +7434,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7472,14 +7473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7490,7 +7491,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7526,7 +7527,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7536,7 +7537,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7546,7 +7547,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7556,7 +7557,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7566,7 +7567,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7576,7 +7577,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7586,7 +7587,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7596,7 +7597,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7606,7 +7607,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7616,7 +7617,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7626,7 +7627,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7636,7 +7637,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7646,7 +7647,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7656,7 +7657,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7666,7 +7667,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7676,7 +7677,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7686,7 +7687,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
+++ b/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2-马丁组.xlsx
@@ -1564,7 +1564,7 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
